--- a/data/outputs/management/110.xlsx
+++ b/data/outputs/management/110.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ6"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -899,6 +904,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>3834963</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1317,6 +1328,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>3166770</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1544,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>9908472</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1739,6 +1760,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>3960989</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
